--- a/dataBase/odmieniecAncestry.xlsx
+++ b/dataBase/odmieniecAncestry.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB38D43-C0C7-47E8-807E-D0C5098FFB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271DDFA-317A-4DFF-AF90-FFEE96D27C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="727" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="727" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odmieniecAncestry" sheetId="1" r:id="rId1"/>
     <sheet name="Wiek" sheetId="5" r:id="rId2"/>
     <sheet name="Budowa Ciała" sheetId="7" r:id="rId3"/>
-    <sheet name="Cecha Szczególna" sheetId="4" r:id="rId4"/>
+    <sheet name="Pozorne Pochodzenie" sheetId="4" r:id="rId4"/>
     <sheet name="Przeszłość" sheetId="2" r:id="rId5"/>
-    <sheet name="Osobowość" sheetId="3" r:id="rId6"/>
-    <sheet name="Dziwny Nawyk" sheetId="9" r:id="rId7"/>
+    <sheet name="Dziwactwo" sheetId="9" r:id="rId6"/>
+    <sheet name="Osobowość" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>0.5</t>
   </si>
@@ -141,25 +141,10 @@
     <t>addition</t>
   </si>
   <si>
-    <t>losowa profesja przestępcza</t>
-  </si>
-  <si>
-    <t>Mówisz w dodatkowym dowolnym jezyku</t>
-  </si>
-  <si>
-    <t>Nóż</t>
-  </si>
-  <si>
     <t>Kosmyk Włosów Królowej Faerie</t>
   </si>
   <si>
     <t>Szlachecki Sygnet</t>
-  </si>
-  <si>
-    <t>1 punkt szaleństwa</t>
-  </si>
-  <si>
-    <t>1 punkt splugawienia</t>
   </si>
   <si>
     <t>Jesteś zbirem i lubisz nękać słabszych od siebie.</t>
@@ -465,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -473,9 +458,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -951,7 +933,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -959,51 +941,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="14">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="15">
-        <v>18</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1009,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1036,18 +1018,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>61</v>
+      <c r="A3" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1080,123 +1062,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A233-0509-402B-B85D-4518C9CFAD27}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.25" thickBot="1">
-      <c r="A2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="B2" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" thickBot="1">
-      <c r="A3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" thickBot="1">
-      <c r="A4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="B4" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>65</v>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" thickBot="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>66</v>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,199 +1196,184 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="90.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
+    <row r="18" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5" thickBot="1">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
@@ -1420,11 +1387,198 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8480B0-5918-48AA-B46C-6EB33A4C5A54}">
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,301 +1588,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
       <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>43</v>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>44</v>
+      <c r="B3" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>45</v>
+      <c r="B4" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>46</v>
+      <c r="B5" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>47</v>
+      <c r="B6" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>48</v>
+      <c r="B7" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.25" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>49</v>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
       <c r="A9" s="5">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>51</v>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1">
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/dataBase/odmieniecAncestry.xlsx
+++ b/dataBase/odmieniecAncestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271DDFA-317A-4DFF-AF90-FFEE96D27C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9582E5D-63A1-4E9D-8894-C0EF01AA73B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="727" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="odmieniecAncestry" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
-  <si>
-    <t>0.5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>Wspólny</t>
   </si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>2k6 miedziaków</t>
-  </si>
-  <si>
-    <t>Elifcki</t>
   </si>
   <si>
     <t>Utrzymujesz się z pracy w swojej profesji.</t>
@@ -763,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,66 +769,66 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -842,15 +836,15 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -858,7 +852,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -866,7 +860,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -874,7 +868,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -882,7 +876,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -890,26 +884,23 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +925,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
@@ -945,39 +936,39 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
@@ -985,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1010,26 +1001,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1062,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C1A233-0509-402B-B85D-4518C9CFAD27}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1074,42 +1065,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29.25" thickBot="1">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29.25" thickBot="1">
       <c r="A3" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1">
       <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="29.25" thickBot="1">
@@ -1117,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
@@ -1202,13 +1193,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.25" thickBot="1">
@@ -1216,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.5" thickBot="1">
@@ -1224,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" thickBot="1">
@@ -1232,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1">
@@ -1240,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" thickBot="1">
@@ -1248,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1">
@@ -1256,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1">
@@ -1264,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.25" thickBot="1">
@@ -1272,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1">
@@ -1280,7 +1271,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
@@ -1288,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1">
@@ -1296,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1">
@@ -1304,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1">
@@ -1312,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1">
@@ -1320,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1">
@@ -1328,10 +1319,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29.25" thickBot="1">
@@ -1339,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="43.5" thickBot="1">
@@ -1347,7 +1338,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1">
@@ -1355,10 +1346,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1">
@@ -1366,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1">
@@ -1374,10 +1365,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1393,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
@@ -1413,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
@@ -1421,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
@@ -1429,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
@@ -1437,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
@@ -1445,7 +1436,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
@@ -1453,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1">
@@ -1461,7 +1452,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
@@ -1469,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
@@ -1477,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1">
@@ -1485,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1">
@@ -1493,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1">
@@ -1501,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1">
@@ -1509,7 +1500,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1">
@@ -1517,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1">
@@ -1525,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1">
@@ -1533,7 +1524,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1">
@@ -1541,7 +1532,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1">
@@ -1549,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1">
@@ -1557,7 +1548,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1">
@@ -1565,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1589,10 +1580,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
@@ -1600,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
@@ -1608,47 +1599,47 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29.25" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1">
@@ -1656,7 +1647,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1">
@@ -1664,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1">
